--- a/pearson_tables/t2m_netherlands-1-5.xlsx
+++ b/pearson_tables/t2m_netherlands-1-5.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6874856712596493</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.7511153591072597</v>
+        <v>0.7311604285534851</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6490174412446915</v>
+        <v>-0.6470199723649585</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5231329648407409</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6900797939498452</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.7871050275965583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7837830105769688</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.6495209502230674</v>
+        <v>0.7725807348271573</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6559948646910198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6571234558185262</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.7653908601855123</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5954443762942244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.7708033220033367</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.7419356199506464</v>
+        <v>-0.6772283508203012</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.7621469019302887</v>
+        <v>-0.7237364760699728</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7299405884681036</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6962095290439119</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6694161206150173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.6260917595373776</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.7418131180731111</v>
+        <v>-0.6682135813136689</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5795540729661856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.6663846465707228</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.6955075040800194</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.538117159189303</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
